--- a/data/trans_camb/P1404-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1404-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5098970102683774</v>
+        <v>-0.3436874979406856</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1864092234847885</v>
+        <v>0.1712224731189214</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.635665028754618</v>
+        <v>3.717457136903586</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.747985512314017</v>
+        <v>-4.475086201949399</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.109243590064008</v>
+        <v>-3.617305614792171</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.502020883573523</v>
+        <v>2.387075838832388</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.349610981875299</v>
+        <v>-1.596653511784634</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.06045468892398161</v>
+        <v>-0.2053345734300272</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>4.457673884749361</v>
+        <v>4.519967652958945</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.286422796187583</v>
+        <v>6.856744621152712</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>8.050929508810983</v>
+        <v>7.735147081163215</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.81344572526956</v>
+        <v>10.95505183580805</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.73929639176458</v>
+        <v>3.452842429409506</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.786380758349705</v>
+        <v>5.773970754196077</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.3400363310947</v>
+        <v>9.946292992769774</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>4.306733087652374</v>
+        <v>4.148160471639835</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>5.775232200970668</v>
+        <v>5.688862350983922</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.501565092082961</v>
+        <v>9.800828287051058</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.08507085603267431</v>
+        <v>-0.05424282231933152</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.02164963203300116</v>
+        <v>0.01068428237127805</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4459728029295936</v>
+        <v>0.4302406020279838</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5569915765185831</v>
+        <v>-0.4978326017394429</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3511721458573206</v>
+        <v>-0.3978158895729451</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.237334871796254</v>
+        <v>0.2435035381809104</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1609773527081677</v>
+        <v>-0.2010324405299577</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.01719105415110952</v>
+        <v>-0.031464986428891</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.513618422020544</v>
+        <v>0.5363672240177916</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.483583626895111</v>
+        <v>1.438567202226019</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.644568696423136</v>
+        <v>1.714140866059192</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.260476709362561</v>
+        <v>2.32891699212318</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.75429344850085</v>
+        <v>0.7526365960744557</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.249085721071584</v>
+        <v>1.236708139159221</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.059615612636693</v>
+        <v>2.271151501807309</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8297198435746894</v>
+        <v>0.7728042334252163</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.041147881502822</v>
+        <v>1.115559468126983</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.72744315720442</v>
+        <v>1.871849826520449</v>
       </c>
     </row>
     <row r="10">
@@ -878,7 +878,7 @@
         <v>2.391853072069979</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>6.584677477764757</v>
+        <v>6.584677477764759</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.285254006481389</v>
+        <v>-3.477543191926863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.109383638451119</v>
+        <v>-2.009819322352619</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.688325005180617</v>
+        <v>3.778586675651233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.716265590104723</v>
+        <v>-2.839636932515301</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.738483444693177</v>
+        <v>-1.553303536017591</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.283274638617506</v>
+        <v>1.498037279753331</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.100608934972437</v>
+        <v>-1.673439775937598</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.9987340148750669</v>
+        <v>-0.4180357189412147</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>3.867733598666725</v>
+        <v>3.716529929203372</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.163399526913266</v>
+        <v>4.694993708699028</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>7.507473967984564</v>
+        <v>6.437102523139602</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.55677681238596</v>
+        <v>12.47199836090789</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.134170741095474</v>
+        <v>4.771381207232336</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.201860844247835</v>
+        <v>6.640961316424693</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>8.451239724999942</v>
+        <v>8.321445176553569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.712272706112883</v>
+        <v>3.894157117225653</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>5.262548669563194</v>
+        <v>5.323338303553629</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>9.389097057528412</v>
+        <v>9.176576304892949</v>
       </c>
     </row>
     <row r="13">
@@ -983,7 +983,7 @@
         <v>0.3324808230688662</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.9153066352673525</v>
+        <v>0.9153066352673528</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3209318246491715</v>
+        <v>-0.3472672804581737</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2072733352205041</v>
+        <v>-0.1954103391346372</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3352512670365229</v>
+        <v>0.3560405520595396</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3587400700602555</v>
+        <v>-0.3861727664384348</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.218322874391367</v>
+        <v>-0.2118281291708695</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1418583700334301</v>
+        <v>0.1856007382290657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2537261963187812</v>
+        <v>-0.201200392748674</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1236984432620892</v>
+        <v>-0.06080114974589363</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.4448961516732503</v>
+        <v>0.4329816130216869</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.9050570714927321</v>
+        <v>0.7601793838557745</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.264686353938549</v>
+        <v>1.082813273986934</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.216519921823412</v>
+        <v>2.07546805899625</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.171699269138661</v>
+        <v>0.9609123856632217</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.35476545118666</v>
+        <v>1.455195719185811</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.02746956370848</v>
+        <v>1.9400810132422</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6124355661839015</v>
+        <v>0.6741350630109887</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9071125681450942</v>
+        <v>0.9195067000243817</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.631248392939488</v>
+        <v>1.584168610825969</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>3.695597550965494</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>7.65182852926264</v>
+        <v>7.651828529262635</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.6398680178087467</v>
+        <v>-0.524936028444499</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1217461830699696</v>
+        <v>-0.5283690303571781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.391525543439326</v>
+        <v>2.802554591694167</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.510977638299377</v>
+        <v>-6.281151953520856</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.909484642760762</v>
+        <v>-2.711870104966856</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.408577740157268</v>
+        <v>3.788924105635437</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.038430158419876</v>
+        <v>-1.373424167860992</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.06322773682044996</v>
+        <v>-0.09246579740146235</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>3.971693840419996</v>
+        <v>4.347753856610361</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>7.012368622089041</v>
+        <v>7.100575740330699</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.757682337869842</v>
+        <v>7.677464499052952</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.01554240358633</v>
+        <v>11.2613399430481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.745543759667491</v>
+        <v>4.4945801302142</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>11.77338534057641</v>
+        <v>11.49091513182908</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>16.28205617357638</v>
+        <v>15.94767364766447</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.363068476357427</v>
+        <v>5.565371913682311</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>7.304477041054127</v>
+        <v>7.137022502960997</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>11.08170094202526</v>
+        <v>11.23614438572632</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.3621226517006397</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7497841415798321</v>
+        <v>0.7497841415798315</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.05505789344970912</v>
+        <v>-0.05173211209307707</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01928105623038278</v>
+        <v>-0.04142018552767148</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1910292949520211</v>
+        <v>0.2121439422160348</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4994284815989377</v>
+        <v>-0.4946546650021508</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2616208854544439</v>
+        <v>-0.2486628900455215</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2559606658955846</v>
+        <v>0.2357855486216875</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07903676441643333</v>
+        <v>-0.1075610388855185</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.01533702410859114</v>
+        <v>-0.01065574784711157</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.3176507119152987</v>
+        <v>0.3743691413575067</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8471117749132947</v>
+        <v>0.8037518223432802</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9234445150310845</v>
+        <v>0.9131190134382009</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.319089057198237</v>
+        <v>1.278725283406902</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.7637341943025856</v>
+        <v>0.8010903498742369</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.91872001710169</v>
+        <v>1.822774373470748</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.71067580226467</v>
+        <v>2.547677603939849</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6309712186387195</v>
+        <v>0.6656489472615728</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8242103972061041</v>
+        <v>0.7965947217919536</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.287283965925107</v>
+        <v>1.337106718730789</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.580449956844378</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.41126488274299</v>
+        <v>6.411264882742993</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>1.919127632304576</v>
@@ -1297,7 +1297,7 @@
         <v>1.822228549195078</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.001808417227156</v>
+        <v>5.001808417227159</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.303527386412042</v>
@@ -1306,7 +1306,7 @@
         <v>2.770365197987691</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.704832405263295</v>
+        <v>5.704832405263292</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.757258158009985</v>
+        <v>1.642725695706743</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.076240697291711</v>
+        <v>0.8448043571904387</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3.828966841485228</v>
+        <v>3.869629927309767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.212176605369043</v>
+        <v>-1.435401984251264</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.251735345873698</v>
+        <v>-0.9597212086736864</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.417444089373885</v>
+        <v>2.319414571373827</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.307451423152613</v>
+        <v>1.391925574144622</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.8935921807999575</v>
+        <v>0.9271525104746881</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.745013258334739</v>
+        <v>3.813915528145737</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.967209591671708</v>
+        <v>6.883321991763839</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.361597403648854</v>
+        <v>6.055191535366202</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>9.049464405592298</v>
+        <v>8.976938095061156</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.628730752647421</v>
+        <v>4.742417193609215</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.483771443722524</v>
+        <v>4.538493062524275</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.565960159245397</v>
+        <v>7.523435464551535</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.066679007104803</v>
+        <v>5.312106921550374</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.606981155087844</v>
+        <v>4.64369117321129</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>7.506749640546631</v>
+        <v>7.453052731029053</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3955262964099202</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.7082416693261812</v>
+        <v>0.7082416693261815</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.2519881511469055</v>
@@ -1402,7 +1402,7 @@
         <v>0.2392649635956579</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.656754889165219</v>
+        <v>0.6567548891652193</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.3874236455993522</v>
@@ -1411,7 +1411,7 @@
         <v>0.3248966510950218</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6690384880934525</v>
+        <v>0.6690384880934521</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1695553146841934</v>
+        <v>0.1487766134223426</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.109598960754742</v>
+        <v>0.08188574835604505</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3777138140120378</v>
+        <v>0.3811333620851479</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1371239038098439</v>
+        <v>-0.1575418335435199</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1456881164786079</v>
+        <v>-0.1098485019224754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2437975749844088</v>
+        <v>0.2418385494936265</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1384631514151721</v>
+        <v>0.142987673024057</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.09224746139032626</v>
+        <v>0.09581165733256751</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3974782261929665</v>
+        <v>0.3969510040600798</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8812176983187522</v>
+        <v>0.8443773893182401</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.7805363444707444</v>
+        <v>0.7608489661163512</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.139410844031032</v>
+        <v>1.153449124361848</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7470351469576563</v>
+        <v>0.7637778048878543</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7000936364846803</v>
+        <v>0.7298773026132221</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.221631157885245</v>
+        <v>1.168671062347296</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6663641686860017</v>
+        <v>0.6861886664291176</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.605545790410871</v>
+        <v>0.6026334612809826</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.9694549036479602</v>
+        <v>0.9774355124960289</v>
       </c>
     </row>
     <row r="28">
@@ -1511,7 +1511,7 @@
         <v>5.521400799170199</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>11.18920601224501</v>
+        <v>11.189206012245</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>5.984875323283465</v>
@@ -1520,7 +1520,7 @@
         <v>5.281021554977318</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>9.48438522854981</v>
+        <v>9.484385228549803</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.074053260349039</v>
+        <v>0.718002309527038</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.276664978083158</v>
+        <v>1.855214103903562</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2.996969062580743</v>
+        <v>3.317349734408433</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.750361516701115</v>
+        <v>3.020040802530857</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.632994926940833</v>
+        <v>1.444934025342349</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.466876347503891</v>
+        <v>7.859087337195712</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>3.066794628592068</v>
+        <v>3.151978454310816</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.436914148095283</v>
+        <v>2.288751710555919</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.789041987365374</v>
+        <v>6.592182020892647</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>9.145579905230756</v>
+        <v>8.802654130767698</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>9.048933760100905</v>
+        <v>9.117152658264111</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.9984191077023</v>
+        <v>11.11397420705323</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>10.92980783332087</v>
+        <v>11.24897242771257</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>9.540266397753291</v>
+        <v>9.461003482453492</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>14.43724736547374</v>
+        <v>14.57948205327308</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>8.936630023124865</v>
+        <v>8.791329980614442</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>8.208594290526545</v>
+        <v>7.847421133283785</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.21579047018581</v>
+        <v>11.97461886628473</v>
       </c>
     </row>
     <row r="31">
@@ -1616,7 +1616,7 @@
         <v>0.5082715319859933</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1.030020295285459</v>
+        <v>1.030020295285458</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.6204822391198773</v>
@@ -1625,7 +1625,7 @@
         <v>0.5475101655876987</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.9832940981062012</v>
+        <v>0.9832940981062005</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.106572045539938</v>
+        <v>0.06804766296699133</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.1130627143168168</v>
+        <v>0.1667521581180597</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.2887651269018791</v>
+        <v>0.3039312301771442</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1764046216203143</v>
+        <v>0.2148020284810077</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1239690113576823</v>
+        <v>0.1007556048889983</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5601850059161065</v>
+        <v>0.5783565822537045</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2761415623461161</v>
+        <v>0.2967648593160759</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2070547719664805</v>
+        <v>0.1900657158163625</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.5880775465375701</v>
+        <v>0.591444239883303</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>1.666840743446798</v>
+        <v>1.608310174085161</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.591905565319102</v>
+        <v>1.572061041062035</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.921322574814371</v>
+        <v>1.944752129503536</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.197235687749884</v>
+        <v>1.228076281620365</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.078463204584847</v>
+        <v>1.073514967200205</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.705493457887891</v>
+        <v>1.675575089207461</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.098881473528292</v>
+        <v>1.057478784189465</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.013634271427919</v>
+        <v>0.9390340270239984</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.547423028449761</v>
+        <v>1.513510255250385</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.389135512140629</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.012336719790468</v>
+        <v>4.012336719790463</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>4.74511012962244</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.253263588018462</v>
+        <v>-1.027783936974446</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-1.199615772217258</v>
+        <v>-1.161199731898864</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.6035659542048006</v>
+        <v>-0.668045446535863</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>2.663440952090018</v>
+        <v>2.904261373741869</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.2743771895282718</v>
+        <v>0.3591047985915751</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.040889165464734</v>
+        <v>1.053470823875219</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>2.378569498665324</v>
+        <v>2.338197752223582</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1824734964714558</v>
+        <v>0.1366944042950203</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>0.5140679781672369</v>
+        <v>0.8451829596499714</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>2.923058348899149</v>
+        <v>3.175470951222152</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.501626026773498</v>
+        <v>2.714129630603356</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.485460433746218</v>
+        <v>3.665672487390491</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>8.910326449160491</v>
+        <v>9.120629939061919</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.729191795156571</v>
+        <v>6.985655116260374</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.761116013878983</v>
+        <v>6.934799580566079</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.506734852240569</v>
+        <v>7.478883447137971</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.034365721284972</v>
+        <v>5.183667623528905</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.341725110632241</v>
+        <v>5.386929183551987</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.2468001967126594</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2921823244229796</v>
+        <v>0.2921823244229792</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4208605819128853</v>
@@ -1851,28 +1851,28 @@
       </c>
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8475460339676418</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.6393040407945837</v>
+        <v>-0.6059874658441389</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.1738018477975007</v>
+        <v>0.1917879072510903</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.01420585575862245</v>
+        <v>0.02652430074204996</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.06854642374290054</v>
+        <v>0.07116877307666401</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1783277122083557</v>
+        <v>0.1856008564695293</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.01463082418385697</v>
+        <v>0.008864460232399375</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.04239498287208643</v>
+        <v>0.06695103381987208</v>
       </c>
     </row>
     <row r="39">
@@ -1883,27 +1883,27 @@
         </is>
       </c>
       <c r="C39" s="6" t="inlineStr"/>
-      <c r="D39" s="6" t="n">
-        <v>9.124284287763786</v>
-      </c>
-      <c r="E39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="n">
+        <v>9.63441626461959</v>
+      </c>
       <c r="F39" s="6" t="n">
-        <v>0.7068360380300333</v>
+        <v>0.7338459614730175</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5343745227420178</v>
+        <v>0.5666158832209005</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.5493969014125188</v>
+        <v>0.5574589678365124</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7333394255697332</v>
+        <v>0.7584257276064083</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4968124079823684</v>
+        <v>0.5069218700930196</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.532641856251775</v>
+        <v>0.527092373798009</v>
       </c>
     </row>
     <row r="40">
@@ -1942,7 +1942,7 @@
         <v>3.246343822675028</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>6.273982298332892</v>
+        <v>6.273982298332889</v>
       </c>
     </row>
     <row r="41">
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>1.943647542708667</v>
+        <v>2.008981077951212</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.037944379996117</v>
+        <v>2.080570556233946</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.104309417788424</v>
+        <v>5.038955572426549</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.911314447051727</v>
+        <v>1.912643852820927</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.256176821820865</v>
+        <v>1.457540205614345</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>4.536075906806014</v>
+        <v>4.506351972721817</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>2.419667718300373</v>
+        <v>2.357386059633351</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>2.098688447831817</v>
+        <v>2.103615882925701</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.25201559818707</v>
+        <v>5.273134691251031</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>4.982921569989927</v>
+        <v>5.140978417220627</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>5.00233140478977</v>
+        <v>5.127623328345008</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.053191588323678</v>
+        <v>8.174039681153392</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.107495171647579</v>
+        <v>5.184495343001407</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.563714625171376</v>
+        <v>4.445559113856811</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.275475347193325</v>
+        <v>7.271074846178796</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.50382318223896</v>
+        <v>4.524298151702755</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.263129524046454</v>
+        <v>4.363233750031912</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>7.27794726706052</v>
+        <v>7.298631155454915</v>
       </c>
     </row>
     <row r="43">
@@ -2047,7 +2047,7 @@
         <v>0.3555766170462409</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.687198129004997</v>
+        <v>0.6871981290049967</v>
       </c>
     </row>
     <row r="44">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.2262352070166336</v>
+        <v>0.2445165931723163</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2390701573940479</v>
+        <v>0.2385892837123427</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5845437931495573</v>
+        <v>0.5975147595771808</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1758549000399518</v>
+        <v>0.174911117379405</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.1148718949753032</v>
+        <v>0.1371735652142716</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4127326483152588</v>
+        <v>0.4021187822390336</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2543429281270017</v>
+        <v>0.2482584166482405</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.2157179554378211</v>
+        <v>0.21581440667887</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.537959129285481</v>
+        <v>0.5429434940806366</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6812656055714518</v>
+        <v>0.7219606782021932</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6828434442785724</v>
+        <v>0.7001965958175066</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>1.099457308129733</v>
+        <v>1.138276559364533</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.5255294177437561</v>
+        <v>0.538207978330723</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.4777392026461563</v>
+        <v>0.4647525902732998</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.7687161844631356</v>
+        <v>0.7748272889994237</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5242226011305725</v>
+        <v>0.5266792832860691</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.4902785815921076</v>
+        <v>0.5015896842830241</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.845530012969962</v>
+        <v>0.8573647041261493</v>
       </c>
     </row>
     <row r="46">
